--- a/result/nonlife_2019_sol.xlsx
+++ b/result/nonlife_2019_sol.xlsx
@@ -1532,19 +1532,19 @@
         <v>9.999999999999999E-12</v>
       </c>
       <c r="D4">
-        <v>-5.474095695692068E-12</v>
+        <v>-1.971282346117983E-12</v>
       </c>
       <c r="E4">
-        <v>3.14366859251135E-08</v>
+        <v>3.143557751484127E-08</v>
       </c>
       <c r="F4">
-        <v>-9.159882811957401E-12</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>9.999999999999999E-12</v>
       </c>
       <c r="H4">
-        <v>3.000583582479653E-07</v>
+        <v>3.000580182664633E-07</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1610,19 +1610,19 @@
         <v>9.999999999999999E-12</v>
       </c>
       <c r="D7">
-        <v>-5.474095695692068E-12</v>
+        <v>-1.971282346117983E-12</v>
       </c>
       <c r="E7">
-        <v>9.918917764966091E-08</v>
+        <v>9.918806923938868E-08</v>
       </c>
       <c r="F7">
-        <v>-9.159882811957401E-12</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>9.999999999999999E-12</v>
       </c>
       <c r="H7">
-        <v>9.467821357383413E-07</v>
+        <v>9.467817957568394E-07</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1892,10 +1892,10 @@
         <v>3.359727458839845E-07</v>
       </c>
       <c r="F2">
-        <v>3.779967872480078E-07</v>
+        <v>1.665673051593012E-06</v>
       </c>
       <c r="G2">
-        <v>1.571271155480296E-06</v>
+        <v>9.999999999999999E-12</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1944,31 +1944,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1.809220770032802E-07</v>
+        <v>1.857719218261497E-07</v>
       </c>
       <c r="C4">
-        <v>3.287038052802475E-09</v>
+        <v>9.999999999999999E-12</v>
       </c>
       <c r="D4">
-        <v>2.358593300147661E-08</v>
+        <v>2.390637059270297E-08</v>
       </c>
       <c r="E4">
-        <v>1.14857852571678E-07</v>
+        <v>6.199698996650136E-08</v>
       </c>
       <c r="F4">
         <v>9.999999999999999E-12</v>
       </c>
       <c r="G4">
-        <v>3.445318506354639E-07</v>
+        <v>3.019107579851898E-07</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0003559108046353091</v>
       </c>
       <c r="I4">
-        <v>0.1412557836685849</v>
+        <v>0.01812897380503442</v>
       </c>
       <c r="J4">
-        <v>0.1121943621689715</v>
+        <v>0.03272995419241644</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2148,10 +2148,10 @@
         <v>1.847862379116478E-07</v>
       </c>
       <c r="F10">
-        <v>2.078987632046882E-07</v>
+        <v>2.078987632046884E-07</v>
       </c>
       <c r="G10">
-        <v>8.641946178324049E-07</v>
+        <v>8.641946178324048E-07</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2180,10 +2180,10 @@
         <v>1.115588222775657E-07</v>
       </c>
       <c r="F11">
-        <v>7.383195609774777E-07</v>
+        <v>5.486044673820223E-07</v>
       </c>
       <c r="G11">
-        <v>9.999999999999999E-12</v>
+        <v>2.632647794324182E-08</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09674935503011972</v>
+        <v>0.008934759053811237</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2232,31 +2232,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>4.24497294064194E-08</v>
+        <v>1.316545466429457E-07</v>
       </c>
       <c r="C13">
-        <v>2.146112625366064E-07</v>
+        <v>1.408857737964927E-07</v>
       </c>
       <c r="D13">
-        <v>2.472345598001894E-08</v>
+        <v>3.034599107469304E-08</v>
       </c>
       <c r="E13">
-        <v>3.205500345670194E-07</v>
+        <v>1.4563611341314E-07</v>
       </c>
       <c r="F13">
-        <v>1.490522690790467E-06</v>
+        <v>4.286796265390923E-07</v>
       </c>
       <c r="G13">
-        <v>-5.354133672196125E-08</v>
+        <v>2.057151445859403E-08</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2108914815259076</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1.365154534466582</v>
+        <v>0.006981622281501019</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2276,10 +2276,10 @@
         <v>1.708639194802105E-07</v>
       </c>
       <c r="F14">
-        <v>1.130832794927367E-06</v>
+        <v>8.402555534790336E-07</v>
       </c>
       <c r="G14">
-        <v>9.999999999999999E-12</v>
+        <v>4.032225512292122E-08</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1481839979360389</v>
+        <v>0.01368468790038237</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2379,19 +2379,19 @@
         <v>9.999999999999999E-12</v>
       </c>
       <c r="D2">
-        <v>1.55939652660677E-07</v>
+        <v>1.559396526606769E-07</v>
       </c>
       <c r="E2">
         <v>1.507202353142003E-07</v>
       </c>
       <c r="F2">
-        <v>3.44737666518926E-07</v>
+        <v>3.447376665189258E-07</v>
       </c>
       <c r="G2">
-        <v>3.83944347478896E-07</v>
+        <v>1.666548576399874E-06</v>
       </c>
       <c r="H2">
-        <v>1.565082105901872E-06</v>
+        <v>9.999999999999999E-12</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2408,31 +2408,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>8.629951777209127E-07</v>
+        <v>9.188558407071515E-07</v>
       </c>
       <c r="C3">
-        <v>4.418286191687205E-08</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>9.999999999999999E-12</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.518852266466344E-07</v>
+        <v>1.554754392218909E-07</v>
       </c>
       <c r="F3">
-        <v>5.381220617617465E-08</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>9.999999999999999E-12</v>
       </c>
       <c r="H3">
-        <v>1.496930355238806E-06</v>
+        <v>1.484066545192607E-06</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04204612732821886</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2449,28 +2449,28 @@
         <v>9.999999999999999E-12</v>
       </c>
       <c r="D4">
-        <v>2.450025070874661E-08</v>
+        <v>6.81348960081561E-13</v>
       </c>
       <c r="E4">
-        <v>2.368223417707672E-08</v>
+        <v>3.143473813132442E-08</v>
       </c>
       <c r="F4">
-        <v>1.13607505763354E-07</v>
+        <v>8.882931788440788E-12</v>
       </c>
       <c r="G4">
         <v>9.999999999999999E-12</v>
       </c>
       <c r="H4">
-        <v>3.441292000615354E-07</v>
+        <v>3.104863007157198E-07</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1397108827571039</v>
+        <v>2.59751026478049E-06</v>
       </c>
       <c r="K4">
-        <v>0.1108945783334405</v>
+        <v>0.03365962020429046</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2478,31 +2478,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>6.848820705308554E-07</v>
+        <v>7.304697943435341E-07</v>
       </c>
       <c r="C5">
-        <v>3.506368913696936E-08</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>9.999999999999999E-12</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.205370246470976E-07</v>
+        <v>1.235994887146625E-07</v>
       </c>
       <c r="F5">
-        <v>4.271052276789527E-08</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>9.999999999999999E-12</v>
       </c>
       <c r="H5">
-        <v>1.187976753670458E-06</v>
+        <v>1.179798250427264E-06</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03336852535610839</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         <v>9.999999999999999E-12</v>
       </c>
       <c r="D7">
-        <v>-1.713018180400014E-12</v>
+        <v>6.813489600815605E-13</v>
       </c>
       <c r="E7">
-        <v>1.002166458212372E-07</v>
+        <v>9.918722985587184E-08</v>
       </c>
       <c r="F7">
-        <v>8.809040743970193E-12</v>
+        <v>8.882931788440786E-12</v>
       </c>
       <c r="G7">
         <v>9.999999999999999E-12</v>
       </c>
       <c r="H7">
-        <v>9.503425773179613E-07</v>
+        <v>9.467829094546565E-07</v>
       </c>
       <c r="I7">
-        <v>0.01011009512074562</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01012095036415638</v>
+        <v>2.59751026478049E-06</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2589,25 +2589,25 @@
         <v>9.999999999999999E-12</v>
       </c>
       <c r="D8">
-        <v>-1.713018180401728E-12</v>
+        <v>9.999999999999999E-12</v>
       </c>
       <c r="E8">
-        <v>2.359787463113635E-07</v>
+        <v>2.335520672618071E-07</v>
       </c>
       <c r="F8">
-        <v>8.809040743966324E-12</v>
+        <v>3.472305722556223E-11</v>
       </c>
       <c r="G8">
         <v>9.999999999999999E-12</v>
       </c>
       <c r="H8">
-        <v>2.23775393907673E-06</v>
+        <v>2.229373875840481E-06</v>
       </c>
       <c r="I8">
-        <v>0.02381401464873468</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02382486989214544</v>
+        <v>1.015360222472723E-05</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2688,34 +2688,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>3.122468606812915E-07</v>
+        <v>3.964812622957406E-07</v>
       </c>
       <c r="C11">
-        <v>6.188168875526674E-08</v>
+        <v>-2.991065791558624E-09</v>
       </c>
       <c r="D11">
-        <v>9.999999999999999E-12</v>
+        <v>5.254183544787019E-08</v>
       </c>
       <c r="E11">
-        <v>6.104495769867236E-08</v>
+        <v>5.006372439829635E-08</v>
       </c>
       <c r="F11">
-        <v>7.535876275539027E-08</v>
+        <v>1.144853186606298E-07</v>
       </c>
       <c r="G11">
-        <v>8.567687974528601E-07</v>
+        <v>5.490682490313385E-07</v>
       </c>
       <c r="H11">
-        <v>9.999999999999999E-12</v>
+        <v>2.63487339365615E-08</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05888793725810314</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.1963696507143772</v>
+        <v>0.00894231235959205</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2758,34 +2758,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>2.667335324949051E-08</v>
+        <v>1.811122459097083E-07</v>
       </c>
       <c r="C13">
-        <v>2.276500319523145E-07</v>
+        <v>1.000102564941536E-07</v>
       </c>
       <c r="D13">
-        <v>9.999999999999999E-12</v>
+        <v>1.550367383755753E-08</v>
       </c>
       <c r="E13">
-        <v>3.106085773502981E-08</v>
+        <v>3.901476124134773E-08</v>
       </c>
       <c r="F13">
-        <v>2.771651885908998E-07</v>
+        <v>9.003438468680113E-08</v>
       </c>
       <c r="G13">
-        <v>1.344111661472691E-06</v>
+        <v>4.289156865087174E-07</v>
       </c>
       <c r="H13">
-        <v>-2.714260407828995E-09</v>
+        <v>2.058284252453793E-08</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2166294053230978</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.177438257787127</v>
+        <v>0.006985466834505255</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2799,19 +2799,19 @@
         <v>9.999999999999999E-12</v>
       </c>
       <c r="D14">
-        <v>4.828153984790426E-08</v>
+        <v>7.930322941475213E-08</v>
       </c>
       <c r="E14">
-        <v>8.646639804468708E-08</v>
+        <v>7.665007158185621E-08</v>
       </c>
       <c r="F14">
-        <v>1.06740430336882E-07</v>
+        <v>1.753193435809493E-07</v>
       </c>
       <c r="G14">
-        <v>1.213561032871016E-06</v>
+        <v>8.406970099434352E-07</v>
       </c>
       <c r="H14">
-        <v>9.999999999999999E-12</v>
+        <v>4.034343977336425E-08</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.1947335281179329</v>
+        <v>0.01369187761060368</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2834,25 +2834,25 @@
         <v>9.999999999999999E-12</v>
       </c>
       <c r="D15">
-        <v>-1.713018180403904E-12</v>
+        <v>9.999999999999999E-12</v>
       </c>
       <c r="E15">
-        <v>5.102832957821703E-07</v>
+        <v>5.050394330973296E-07</v>
       </c>
       <c r="F15">
-        <v>8.809040743960632E-12</v>
+        <v>3.472305722556223E-11</v>
       </c>
       <c r="G15">
         <v>9.999999999999999E-12</v>
       </c>
       <c r="H15">
-        <v>4.838942284689579E-06</v>
+        <v>4.820825943579672E-06</v>
       </c>
       <c r="I15">
-        <v>0.05150250398808912</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05151335923149988</v>
+        <v>1.015360222472723E-05</v>
       </c>
       <c r="K15">
         <v>0</v>
